--- a/biology/Botanique/Boerhavia_diffusa/Boerhavia_diffusa.xlsx
+++ b/biology/Botanique/Boerhavia_diffusa/Boerhavia_diffusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boerhavia diffusa est une espèce de plante à fleurs de la famille du bougainvillée. 
-On l'appelle Bécabar bâtard ou Macatia vert à La Réunion[3], Herbe pintade à Maurice, Katsi à la Grande Comore, Beamena à Madagascar, Speading hogweed aux Seychelles[4], Mkwakwara ou Mkwayakwaya en Swahili[5], Punarnava en Inde  (ce qui signifie « qui rajeunit/renouvelle le corps »)[6], Red spiderling[1], ou Tarvine dans le monde anglophone[1], Agarra pinto, Tangara, Bredo de porco ou Erva tostão dans le monde lusophone[5]. 
-Elle est utilisée dans la pharmacopée ayurvédique[7] et diverses pharmacopées africaines[5], notamment pour soulager la douleur. Elle est employée comme légume-feuille dans de nombreuses régions notamment en Inde.
+On l'appelle Bécabar bâtard ou Macatia vert à La Réunion, Herbe pintade à Maurice, Katsi à la Grande Comore, Beamena à Madagascar, Speading hogweed aux Seychelles, Mkwakwara ou Mkwayakwaya en Swahili, Punarnava en Inde  (ce qui signifie « qui rajeunit/renouvelle le corps »), Red spiderling, ou Tarvine dans le monde anglophone, Agarra pinto, Tangara, Bredo de porco ou Erva tostão dans le monde lusophone. 
+Elle est utilisée dans la pharmacopée ayurvédique et diverses pharmacopées africaines, notamment pour soulager la douleur. Elle est employée comme légume-feuille dans de nombreuses régions notamment en Inde.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boerhavia diffusa est une plante herbacée prostrée ou érigée, très ramifiée, atteignant 1 m de haut. Les tiges et les feuilles plus ou moins couvertes de cils blancs épars. Les feuilles opposées, de tailles inégales, à face inférieure est généralement blanchâtre. Les axes des inflorescences cymeuses ramifiées portent un champ glandulaire collant disposé en étroit anneau central oblique. Les fleurs roses, rouges ou violettes, sont longues d'environ 2 mm. Le fruit est une capsule étroitement obovale, plus large près de l'apex, est creusé de 3-5 sillons formant des arêtes couvertes de poils glanduleux[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boerhavia diffusa est une plante herbacée prostrée ou érigée, très ramifiée, atteignant 1 m de haut. Les tiges et les feuilles plus ou moins couvertes de cils blancs épars. Les feuilles opposées, de tailles inégales, à face inférieure est généralement blanchâtre. Les axes des inflorescences cymeuses ramifiées portent un champ glandulaire collant disposé en étroit anneau central oblique. Les fleurs roses, rouges ou violettes, sont longues d'environ 2 mm. Le fruit est une capsule étroitement obovale, plus large près de l'apex, est creusé de 3-5 sillons formant des arêtes couvertes de poils glanduleux. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rudérale, annuelle à pérenne, elle apprécie les zones ouvertes perturbées dans les villages, le long des bords de route, des aéroports et autres lieux de passage, du niveau de la mer à 200 m d'altitude[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rudérale, annuelle à pérenne, elle apprécie les zones ouvertes perturbées dans les villages, le long des bords de route, des aéroports et autres lieux de passage, du niveau de la mer à 200 m d'altitude.
 			inflorescence de Boerhavia diffusa montrant les champs glandulaires collants sur ses axes
 			fruits collants de Boerhavia diffusa
 			Boerhavia diffusa poussant dans l'interstice d'un trottoir.
@@ -562,8 +578,6 @@
 			forme rampante de Boerhavia diffusa
 			Boerhavia diffusa rampant en fleur
 			Boerhavia diffusa rampant en fleur (détail)
-Dissémination
-Boerhavia diffusa est largement répandue dans toute l'Inde, dans le Pacifique, et dans le Sud des États-Unis. Cette répartition s'explique par ses petits fruits secs, couverts de poils glanduleux, se développant à quelques centimètres du sol, qui se collent aux petits oiseaux migrateurs, qui peuvent alors largement disséminer ses graines[9].
 </t>
         </is>
       </c>
@@ -589,12 +603,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Dissémination</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boerhavia diffusa est largement répandue dans toute l'Inde, dans le Pacifique, et dans le Sud des États-Unis. Cette répartition s'explique par ses petits fruits secs, couverts de poils glanduleux, se développant à quelques centimètres du sol, qui se collent aux petits oiseaux migrateurs, qui peuvent alors largement disséminer ses graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Boerhavia_diffusa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boerhavia_diffusa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe pas encore d'étude sérieuse et approfondie permettant de déterminer précisément la région d'origine de Boerhavia diffusa, mais elle est probablement originaire des régions tropicales de l'Ancien Monde. Cependant, elle est aujourd'hui très répandue, et s'est naturalisée dans de nombreux pays de la zone inter-tropicale[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe pas encore d'étude sérieuse et approfondie permettant de déterminer précisément la région d'origine de Boerhavia diffusa, mais elle est probablement originaire des régions tropicales de l'Ancien Monde. Cependant, elle est aujourd'hui très répandue, et s'est naturalisée dans de nombreux pays de la zone inter-tropicale :
 Afrique
 Botswana, Égypte, Ghana, Kenya, Liberia, Malawi, Mozambique, Namibie, Nigeria, Rwanda, Sénégal, Sierra Leone, Somalie, Afrique du Sud (provinces du Cap-Oriental, de Gauteng, de KwaZulu-Natal, du Limpopo, du Mpumalanga, du Cap-Nord), Swaziland, Tanzanie, Togo, Ouganda, Zambie et Zimbabwe.
 Asie
@@ -611,39 +664,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Boerhavia_diffusa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Boerhavia_diffusa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Importance économique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boerhavia diffusa est largement utilisé comme légume-feuilles dans de nombreux pays asiatiques et africains. Les  racines et les graines sont parfois mélangées aux céréales pour la confection de pain[5]. Boerhavia diffusa peut être utilisé comme fourrage pour le bétail. Elle a un fort potentiel de contamination des semences, et peut être hôte d'agents pathogènes pour certaines cultures telles que les aubergines[1].
-Elle est considérée comme une adventice nuisible aux cultures majeures aux Seychelles et à Madagascar[4]. Elle est jugée invasive au Paraguay, au Chili, en Argentine, à Trinidad et Tobago, à Hawaï, dans l'archipel Ryukyu (Japon) et au Cambodge[10].
-Elle entre dans diverses recettes de pharmacopées indiennes[7] et africaines notamment contre les ulcères, et les abcès, comme fébrifuge, pour extraire le ver de Guinée, etc.[5]
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -665,14 +685,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Chimie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>On a isolé dans Boerhavia diffusa :
-les boeravinones G et H (roténoïdes)[11].
-la lunamarine (quinolone alcaloïde)[12].</t>
+          <t>Importance économique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boerhavia diffusa est largement utilisé comme légume-feuilles dans de nombreux pays asiatiques et africains. Les  racines et les graines sont parfois mélangées aux céréales pour la confection de pain. Boerhavia diffusa peut être utilisé comme fourrage pour le bétail. Elle a un fort potentiel de contamination des semences, et peut être hôte d'agents pathogènes pour certaines cultures telles que les aubergines.
+Elle est considérée comme une adventice nuisible aux cultures majeures aux Seychelles et à Madagascar. Elle est jugée invasive au Paraguay, au Chili, en Argentine, à Trinidad et Tobago, à Hawaï, dans l'archipel Ryukyu (Japon) et au Cambodge.
+Elle entre dans diverses recettes de pharmacopées indiennes et africaines notamment contre les ulcères, et les abcès, comme fébrifuge, pour extraire le ver de Guinée, etc.
+</t>
         </is>
       </c>
     </row>
@@ -697,13 +720,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On a isolé dans Boerhavia diffusa :
+les boeravinones G et H (roténoïdes).
+la lunamarine (quinolone alcaloïde).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boerhavia_diffusa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boerhavia_diffusa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Activités biologiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études sur des extraits de Boerhavia diffusa ont démontré des activités antimicrobiennes[13], anticancéreuses in vitro[14], anti-œstrogènes[15], immunomodulatrice[16], et anti-amibiennes (en particulier contre Entamoeba histolytica)[17].
-Boerhavia diffusa produit la protéine BDP-30, qui présente probablement une activité inactivatrice des ribosomes[18].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études sur des extraits de Boerhavia diffusa ont démontré des activités antimicrobiennes, anticancéreuses in vitro, anti-œstrogènes, immunomodulatrice, et anti-amibiennes (en particulier contre Entamoeba histolytica).
+Boerhavia diffusa produit la protéine BDP-30, qui présente probablement une activité inactivatrice des ribosomes.
 </t>
         </is>
       </c>
